--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp5.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9753973919198951</v>
+        <v>1.030683333333333</v>
       </c>
       <c r="H2">
-        <v>0.9753973919198951</v>
+        <v>3.09205</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.68952067396597</v>
+        <v>6.215523666666666</v>
       </c>
       <c r="N2">
-        <v>5.68952067396597</v>
+        <v>18.646571</v>
       </c>
       <c r="O2">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="P2">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="Q2">
-        <v>5.54954362666073</v>
+        <v>6.406236651172222</v>
       </c>
       <c r="R2">
-        <v>5.54954362666073</v>
+        <v>57.65612986055</v>
       </c>
       <c r="S2">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="T2">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9753973919198951</v>
+        <v>1.030683333333333</v>
       </c>
       <c r="H3">
-        <v>0.9753973919198951</v>
+        <v>3.09205</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.473217159010719</v>
+        <v>9.484070666666666</v>
       </c>
       <c r="N3">
-        <v>9.473217159010719</v>
+        <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="P3">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="Q3">
-        <v>9.240151309989853</v>
+        <v>9.775073568288889</v>
       </c>
       <c r="R3">
-        <v>9.240151309989853</v>
+        <v>87.9756621146</v>
       </c>
       <c r="S3">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="T3">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9753973919198951</v>
+        <v>1.030683333333333</v>
       </c>
       <c r="H4">
-        <v>0.9753973919198951</v>
+        <v>3.09205</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.03680687263595</v>
+        <v>6.093084</v>
       </c>
       <c r="N4">
-        <v>6.03680687263595</v>
+        <v>18.279252</v>
       </c>
       <c r="O4">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
       <c r="P4">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
       <c r="Q4">
-        <v>5.888285679093204</v>
+        <v>6.2800401274</v>
       </c>
       <c r="R4">
-        <v>5.888285679093204</v>
+        <v>56.5203611466</v>
       </c>
       <c r="S4">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
       <c r="T4">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
     </row>
   </sheetData>
